--- a/03スプリントバックログ/Scrum5_スプリントバックログ最新.xlsx
+++ b/03スプリントバックログ/Scrum5_スプリントバックログ最新.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F1B713-11BA-4AC7-99F1-F7AF827A67F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A89D99-C6BA-A647-A8F8-9E7150146D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
-    <sheet name="スプリント計画（ホーム画面）" sheetId="4" r:id="rId2"/>
-    <sheet name="スプリント計画（課題投稿）" sheetId="7" r:id="rId3"/>
-    <sheet name="スプリント計画（課題返答）" sheetId="9" r:id="rId4"/>
-    <sheet name="スプリント計画（閲覧）" sheetId="15" r:id="rId5"/>
-    <sheet name="スプリント計画（カレンダー）" sheetId="16" r:id="rId6"/>
-    <sheet name="スプリント計画（プロフィール表示）" sheetId="17" r:id="rId7"/>
-    <sheet name="スプリント計画（ベストアンサー）" sheetId="18" r:id="rId8"/>
-    <sheet name="スプリント計画（機能説明）" sheetId="19" r:id="rId9"/>
-    <sheet name="スプリント計画（ユーザー新規登録）" sheetId="20" r:id="rId10"/>
-    <sheet name="スプリント計画（機能10）" sheetId="21" r:id="rId11"/>
+    <sheet name="スプリントバックログ (第2スプリント)  (2)" sheetId="23" r:id="rId2"/>
+    <sheet name="スプリントバックログ (第3スプリント) " sheetId="22" r:id="rId3"/>
+    <sheet name="スプリント計画（ホーム画面）" sheetId="4" r:id="rId4"/>
+    <sheet name="スプリント計画（カレンダー）" sheetId="16" r:id="rId5"/>
+    <sheet name="スプリント計画（課題投稿）" sheetId="7" r:id="rId6"/>
+    <sheet name="スプリント計画（閲覧）" sheetId="15" r:id="rId7"/>
+    <sheet name="スプリント計画（課題返答）" sheetId="9" r:id="rId8"/>
+    <sheet name="スプリント計画（プロフィール表示）" sheetId="17" r:id="rId9"/>
+    <sheet name="スプリント計画（ベストアンサー）" sheetId="18" r:id="rId10"/>
+    <sheet name="スプリント計画（機能説明）" sheetId="19" r:id="rId11"/>
+    <sheet name="スプリント計画（ユーザー新規登録）" sheetId="20" r:id="rId12"/>
+    <sheet name="スプリント計画（機能10）" sheetId="21" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第1スプリント)'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'スプリントバックログ (第2スプリント)  (2)'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'スプリントバックログ (第3スプリント) '!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -596,24 +600,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>科目名選択、課題名、課題の内容、質問内容、画像添付、ポイント付与、課題の期日、解答期限</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題投稿</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期表示は自分が投稿した課題の一覧。検索も可能。課題を検索して投稿内容を一覧表示。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>状況
 [実施・完了]</t>
     <rPh sb="0" eb="2">
@@ -642,67 +628,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>米田、藤井</t>
-    <rPh sb="0" eb="2">
-      <t>ヨネダ</t>
+    <t>藤井</t>
+    <rPh sb="0" eb="2">
+      <t>フジイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金子</t>
+    <rPh sb="0" eb="2">
+      <t>カネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉川</t>
+    <rPh sb="0" eb="2">
+      <t>タマガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題を投稿したり画像の添付ができる</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>フジイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>村岡、荻原</t>
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期表示は自分が投稿した物を表示をする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村岡</t>
     <rPh sb="0" eb="2">
       <t>ムラオカ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>オギハラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉川、金子</t>
-    <rPh sb="0" eb="2">
-      <t>タマガワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カネコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>藤井</t>
-    <rPh sb="0" eb="2">
-      <t>フジイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荻原</t>
-    <rPh sb="0" eb="2">
-      <t>オギハラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>村岡</t>
-    <rPh sb="0" eb="2">
-      <t>ムラオカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金子</t>
-    <rPh sb="0" eb="2">
-      <t>カネコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉川</t>
-    <rPh sb="0" eb="2">
-      <t>タマガワ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1113,16 +1086,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.08203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.4140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.58203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1152,12 +1125,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1165,54 +1138,32 @@
       <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1234,33 +1185,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CFFC70-6717-8144-9361-87526229515F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7081D8-6A41-6A46-8FD4-34845D556688}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1274,89 +1225,77 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>64</v>
-      </c>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>65</v>
-      </c>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>66</v>
-      </c>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1371,33 +1310,33 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B7E486-22CA-8446-8332-E82A6BC61ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B86E21-7CB6-A14F-9583-4028C99D2874}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1411,81 +1350,343 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>67</v>
-      </c>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CFFC70-6717-8144-9361-87526229515F}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="40" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B7E486-22CA-8446-8332-E82A6BC61ED7}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="40" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1500,24 +1701,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8C8CDB-E206-244D-8F01-5B0635B0C708}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="27" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LScrum1&amp;Cプロダクトバックログ&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F33ECD1-9EBD-254E-99B5-5513701E51FF}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="27" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LScrum1&amp;Cプロダクトバックログ&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1526,7 +1953,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1540,10 +1967,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1553,14 +1980,10 @@
       <c r="C3" s="8">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1570,14 +1993,10 @@
       <c r="C4" s="8">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1585,16 +2004,12 @@
         <v>48</v>
       </c>
       <c r="C5" s="8">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1604,14 +2019,10 @@
       <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1621,365 +2032,43 @@
       <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
-  <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="8">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="8">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="8">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="8">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="8">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="8">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="8">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5340EB-BD56-B447-87CE-47F3CE0C0C99}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
-  <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="8">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="8">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1989,33 +2078,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5EB962-51C9-7644-9674-0BCBA0DD00B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE19C98-61D5-2943-9D0A-E3F80B8CF6AA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2029,93 +2118,83 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="8">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2130,33 +2209,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE19C98-61D5-2943-9D0A-E3F80B8CF6AA}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2170,82 +2249,125 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="C3" s="8">
+        <v>7</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="8">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2255,33 +2377,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC4D8F7-60F7-E14B-8769-FFE3E4BF07CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5EB962-51C9-7644-9674-0BCBA0DD00B0}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2295,85 +2417,93 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="E4" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2388,33 +2518,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7081D8-6A41-6A46-8FD4-34845D556688}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5340EB-BD56-B447-87CE-47F3CE0C0C99}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2428,82 +2558,91 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
+        <v>68</v>
+      </c>
+      <c r="C3" s="8">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2513,33 +2652,33 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B86E21-7CB6-A14F-9583-4028C99D2874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC4D8F7-60F7-E14B-8769-FFE3E4BF07CD}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2553,77 +2692,85 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
